--- a/Template_CoMoCOVID-19App_v18.xlsx
+++ b/Template_CoMoCOVID-19App_v18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60E9963-F166-3B4A-BA20-7EBD8B8222BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23485AA1-A9AD-9842-91DF-AE48098FB734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="16000" tabRatio="648" activeTab="8" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-1740" yWindow="-19280" windowWidth="27320" windowHeight="16000" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Vaccination Param" sheetId="15" r:id="rId9"/>
     <sheet name="Interventions Param" sheetId="11" r:id="rId10"/>
     <sheet name="Interventions" sheetId="14" r:id="rId11"/>
-    <sheet name="HIDDEN" sheetId="12" r:id="rId12"/>
+    <sheet name="HIDDEN" sheetId="12" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Interventions Param'!$A$1:$F$25</definedName>
@@ -2166,9 +2166,6 @@
     <t>New in v17</t>
   </si>
   <si>
-    <t>1-5; 21</t>
-  </si>
-  <si>
     <t>Age Groups</t>
   </si>
   <si>
@@ -2837,9 +2834,6 @@
     </r>
   </si>
   <si>
-    <t>v17.e</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3114,6 +3108,12 @@
   </si>
   <si>
     <t>Added a "Partial School Closures" intervention.</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>v18.a</t>
   </si>
 </sst>
 </file>
@@ -4074,8 +4074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4085,10 +4085,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
@@ -4113,17 +4113,17 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="58" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="38" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34">
       <c r="A9" s="38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4133,7 +4133,7 @@
     </row>
     <row r="12" spans="1:2" ht="89" customHeight="1">
       <c r="A12" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4141,93 +4141,93 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="90" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="90" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" s="39" customFormat="1">
       <c r="A30" s="90" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B30"/>
       <c r="D30"/>
@@ -4235,86 +4235,86 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="90" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="90" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F39" s="40"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34">
       <c r="A42" s="84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34">
       <c r="A43" s="85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34">
       <c r="A44" s="85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17">
       <c r="A45" s="85" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
       <c r="A46" s="85" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5010,7 +5010,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -5042,7 +5042,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>270</v>
@@ -5308,7 +5308,7 @@
         <v>thousand tests</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>278</v>
@@ -5332,7 +5332,7 @@
         <v>%</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>278</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>489</v>
       </c>
       <c r="B16" s="7">
         <v>43983</v>
@@ -5378,7 +5378,7 @@
         <v>%</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>278</v>
@@ -6620,7 +6620,7 @@
         <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>31</v>
@@ -7357,7 +7357,7 @@
         <v>93</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8517,7 +8517,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="76">
         <v>0.1</v>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="77">
         <v>3924000</v>
@@ -9175,14 +9175,14 @@
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" s="63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="83">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>23</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="10" spans="1:6" ht="17">
       <c r="A10" s="63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10" s="60"/>
       <c r="C10" s="62">
@@ -9529,7 +9529,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="92" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C24" s="88">
         <v>100</v>
@@ -9538,7 +9538,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -10366,7 +10366,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="2" spans="1:5" ht="41.25" customHeight="1">
       <c r="A2" s="111" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -10407,7 +10407,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="110" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B3" s="99">
         <v>80</v>
@@ -10418,7 +10418,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B4" s="99">
         <v>20</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B5" s="100">
         <f>100*(1-((1-B3/100)/(1-B4/100)))</f>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B6" s="99">
         <v>50</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="A7" s="101" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B7" s="100">
         <f>'Virus Param'!B8*(1-B3/100)/(1-B4/100)</f>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="8" spans="1:5" s="69" customFormat="1" ht="17">
       <c r="A8" s="101" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B8" s="100">
         <f>100*(1-(B7/'Virus Param'!B8)*(1-'Vaccination Param'!B6/100))</f>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="10" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A10" s="101" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B10" s="102">
         <f>$B$7</f>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="11" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A11" s="101" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B11" s="102">
         <f>$B$7</f>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="12" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A12" s="101" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B12" s="102">
         <f>'Virus Param'!$B$8</f>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="13" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A13" s="101" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B13" s="102">
         <f>'Virus Param'!$B$9</f>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="14" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A14" s="101" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B14" s="102">
         <f>'Virus Param'!$B$9</f>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="15" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A15" s="101" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" s="102">
         <f>'Virus Param'!$B$9</f>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="16" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A16" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B16" s="102">
         <f>'Virus Param'!$B$10</f>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="17" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A17" s="101" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B17" s="102">
         <f>'Virus Param'!$B$10</f>
@@ -10627,7 +10627,7 @@
     </row>
     <row r="18" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A18" s="101" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B18" s="103">
         <f>'Virus Param'!$B$10</f>
@@ -10645,7 +10645,7 @@
     </row>
     <row r="19" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A19" s="105" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B19" s="103">
         <v>0</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A20" s="93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B20" s="106">
         <f>$B$8</f>
@@ -10680,7 +10680,7 @@
     </row>
     <row r="21" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A21" s="93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B21" s="106">
         <f>$B$8</f>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A22" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B22" s="106">
         <f>$B$8</f>
@@ -10716,7 +10716,7 @@
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A23" s="93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B23" s="106">
         <v>100</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A24" s="93" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B24" s="97">
         <v>4</v>
@@ -10750,7 +10750,7 @@
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A25" s="94" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B25" s="98">
         <v>100</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A26" s="94" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B26" s="98">
         <v>100</v>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A27" s="94" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B27" s="98">
         <f>$B$4</f>
@@ -10802,7 +10802,7 @@
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A28" s="94" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B28" s="98">
         <f>$B$4</f>

--- a/Template_CoMoCOVID-19App_v18.xlsx
+++ b/Template_CoMoCOVID-19App_v18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23485AA1-A9AD-9842-91DF-AE48098FB734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C09C12-BA0C-A646-A980-4FFDDA43686A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="-19280" windowWidth="27320" windowHeight="16000" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="648" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3418,7 +3418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3677,32 +3677,15 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3747,6 +3730,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3761,14 +3754,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="E1:F16" xr:uid="{2E89BE7F-E667-6946-928D-DC5AB4119A65}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4074,7 +4067,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6394,7 +6387,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(OR($A2 = "Vaccination", $A2 = "School Closures", $A2 = "Partial School Closures",  $A2 = "Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8492,8 +8485,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -8519,236 +8512,236 @@
       <c r="A2" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="112">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="112">
         <v>0.1</v>
-      </c>
-      <c r="C2" s="76">
-        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="112">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="112">
         <v>0.1</v>
-      </c>
-      <c r="C3" s="76">
-        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="112">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="112">
         <v>0.1</v>
-      </c>
-      <c r="C4" s="76">
-        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="112">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="112">
         <v>0.1</v>
-      </c>
-      <c r="C5" s="76">
-        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="112">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="112">
         <v>0.5</v>
-      </c>
-      <c r="C6" s="76">
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="112">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="112">
         <v>0.5</v>
-      </c>
-      <c r="C7" s="76">
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="76">
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="C8" s="76">
+      <c r="B8" s="112">
         <v>1.9</v>
+      </c>
+      <c r="C8" s="112">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76">
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="C9" s="76">
+      <c r="B9" s="112">
         <v>1.9</v>
+      </c>
+      <c r="C9" s="112">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="C10" s="76">
-        <v>3.3000000000000003</v>
+      <c r="B10" s="112">
+        <v>3.3</v>
+      </c>
+      <c r="C10" s="112">
+        <v>1.4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="76">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="C11" s="76">
-        <v>3.3000000000000003</v>
+      <c r="B11" s="112">
+        <v>3.3</v>
+      </c>
+      <c r="C11" s="112">
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="76">
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="C12" s="76">
+      <c r="B12" s="112">
         <v>6.5</v>
+      </c>
+      <c r="C12" s="112">
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="76">
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="C13" s="76">
+      <c r="B13" s="112">
         <v>6.5</v>
+      </c>
+      <c r="C13" s="112">
+        <v>2.9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="76">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="C14" s="76">
+      <c r="B14" s="112">
         <v>12.6</v>
+      </c>
+      <c r="C14" s="112">
+        <v>5.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="76">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="C15" s="76">
+      <c r="B15" s="112">
         <v>12.6</v>
+      </c>
+      <c r="C15" s="112">
+        <v>5.8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="112">
+        <v>21</v>
+      </c>
+      <c r="C16" s="112">
         <v>9.3000000000000007</v>
-      </c>
-      <c r="C16" s="76">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="112">
+        <v>21</v>
+      </c>
+      <c r="C17" s="112">
         <v>9.3000000000000007</v>
-      </c>
-      <c r="C17" s="76">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="76">
-        <v>26.200000000000003</v>
-      </c>
-      <c r="C18" s="76">
+      <c r="B18" s="112">
         <v>31.6</v>
+      </c>
+      <c r="C18" s="112">
+        <v>26.2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="76">
-        <v>26.200000000000003</v>
-      </c>
-      <c r="C19" s="76">
+      <c r="B19" s="112">
         <v>31.6</v>
+      </c>
+      <c r="C19" s="112">
+        <v>26.2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="76">
-        <v>26.200000000000003</v>
-      </c>
-      <c r="C20" s="76">
+      <c r="B20" s="112">
         <v>31.6</v>
+      </c>
+      <c r="C20" s="112">
+        <v>26.2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="76">
-        <v>26.200000000000003</v>
-      </c>
-      <c r="C21" s="76">
+      <c r="B21" s="112">
         <v>31.6</v>
+      </c>
+      <c r="C21" s="112">
+        <v>26.2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="76">
-        <v>26.200000000000003</v>
-      </c>
-      <c r="C22" s="76">
+      <c r="B22" s="112">
         <v>31.6</v>
+      </c>
+      <c r="C22" s="112">
+        <v>26.2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:C22" xr:uid="{6F77CD72-3BB7-4451-8487-AA34D9320359}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:C22" xr:uid="{6764B28F-EEAB-5F4A-838F-FD36DD7F6B03}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/Template_CoMoCOVID-19App_v18.xlsx
+++ b/Template_CoMoCOVID-19App_v18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C09C12-BA0C-A646-A980-4FFDDA43686A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3B205-F1C4-46C9-AD65-593F644CD0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="648" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="648" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -2773,7 +2781,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Change in probability of requiring hospitalisation if previously vaccinated</t>
+      <t xml:space="preserve">Days from seropositve to seronegative </t>
     </r>
   </si>
   <si>
@@ -2783,16 +2791,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">(Prev. in Virus Param) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Change in probability of requiring hospitalisation if previously infected</t>
+      <t xml:space="preserve">(Optional Vaccine Formula) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Observed efficacy against disease (e.g. in a trial with a disease endpoint)</t>
     </r>
   </si>
   <si>
@@ -2802,16 +2809,25 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(Prev. in Virus Param)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Change in probability of requiring hospitalisation if previously infected and vaccinated</t>
+      <t xml:space="preserve">(Optional Vaccine Formula) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fficacy against infection</t>
     </r>
   </si>
   <si>
@@ -2821,16 +2837,17 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">(Prev. in Virus Param) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Days from seropositve to seronegative </t>
+      <t>(Optional Vaccine Formula)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Efficacy against disease given already infected</t>
     </r>
   </si>
   <si>
@@ -2840,15 +2857,36 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>(Optional Vaccine Formula)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Efficacy against severe disease given already infected and has disease</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
       <t xml:space="preserve">(Optional Vaccine Formula) </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Observed efficacy against disease (e.g. in a trial with a disease endpoint)</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Probability upon infection of developing clinical symptoms if previously vaccinated</t>
     </r>
   </si>
   <si>
@@ -2858,25 +2896,16 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">(Optional Vaccine Formula) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fficacy against infection</t>
+      <t>(Prev. in Virus Param)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability upon infection of developing clinical symptoms if previously vaccinated</t>
     </r>
   </si>
   <si>
@@ -2886,17 +2915,64 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(Optional Vaccine Formula)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Efficacy against disease given already infected</t>
+      <t xml:space="preserve">(Prev. in Interventions Param) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Vaccination - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time to reach target coverage (1 to 52)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(Prev. in Interventions Param) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vaccination - Duration of efficacious period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">(Prev. in Interventions Param) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vaccination -  Duration of efficacious period if previously infected</t>
     </r>
   </si>
   <si>
@@ -2906,17 +2982,17 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(Optional Vaccine Formula)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Efficacy against severe disease given already infected and has disease</t>
+      <t>(Prev. in Interventions Param)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vaccination -  Efficacy against infection</t>
     </r>
   </si>
   <si>
@@ -2926,17 +3002,50 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
-      <t xml:space="preserve">(Optional Vaccine Formula) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Probability upon infection of developing clinical symptoms if previously vaccinated</t>
-    </r>
+      <t xml:space="preserve">(Prev. in Interventions Param) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Vaccination -  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Efficacy against infection if previously infected</t>
+    </r>
+  </si>
+  <si>
+    <t>You can inform the vaccine related model parameters by filling in the yellow cells. These values should be taken directly from the published efficacies against infection and disease generated by the vaccine clinical trials</t>
+  </si>
+  <si>
+    <t>All Vaccination Parameters have been regrouped into the "Vaccination Param" sheet and several formulas have been addded.</t>
+  </si>
+  <si>
+    <t>Partial School Closures</t>
+  </si>
+  <si>
+    <t>Template v18</t>
+  </si>
+  <si>
+    <t>New in v18</t>
+  </si>
+  <si>
+    <t>Added a "Partial School Closures" intervention.</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>v18.a</t>
   </si>
   <si>
     <r>
@@ -2954,7 +3063,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Change in probability of requiring hospitalisation if previously vaccinated</t>
+      <t>Probability of requiring hospitalisation if previously vaccinated</t>
     </r>
   </si>
   <si>
@@ -2964,16 +3073,16 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(Prev. in Virus Param)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Probability upon infection of developing clinical symptoms if previously vaccinated</t>
+      <t xml:space="preserve">(Prev. in Virus Param) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Probability of requiring hospitalisation if previously vaccinated</t>
     </r>
   </si>
   <si>
@@ -2983,64 +3092,16 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">(Prev. in Interventions Param) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Vaccination - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Time to reach target coverage (1 to 52)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">(Prev. in Interventions Param) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vaccination - Duration of efficacious period</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">(Prev. in Interventions Param) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vaccination -  Duration of efficacious period if previously infected</t>
+      <t xml:space="preserve">(Prev. in Virus Param) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Probability of requiring hospitalisation if previously infected</t>
     </r>
   </si>
   <si>
@@ -3050,70 +3111,17 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(Prev. in Interventions Param)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Vaccination -  Efficacy against infection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">(Prev. in Interventions Param) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Vaccination -  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Efficacy against infection if previously infected</t>
-    </r>
-  </si>
-  <si>
-    <t>You can inform the vaccine related model parameters by filling in the yellow cells. These values should be taken directly from the published efficacies against infection and disease generated by the vaccine clinical trials</t>
-  </si>
-  <si>
-    <t>All Vaccination Parameters have been regrouped into the "Vaccination Param" sheet and several formulas have been addded.</t>
-  </si>
-  <si>
-    <t>Partial School Closures</t>
-  </si>
-  <si>
-    <t>Template v18</t>
-  </si>
-  <si>
-    <t>New in v18</t>
-  </si>
-  <si>
-    <t>Added a "Partial School Closures" intervention.</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>v18.a</t>
+      <t>(Prev. in Virus Param)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Probability of requiring hospitalisation if previously infected and vaccinated</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3687,6 +3695,16 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3730,16 +3748,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3754,14 +3762,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="E1:F16" xr:uid="{2E89BE7F-E667-6946-928D-DC5AB4119A65}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4071,17 +4079,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>490</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
@@ -4106,17 +4114,17 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="58" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="38" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5">
       <c r="A9" s="38" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4124,7 +4132,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="89" customHeight="1">
+    <row r="12" spans="1:2" ht="89.1" customHeight="1">
       <c r="A12" s="38" t="s">
         <v>447</v>
       </c>
@@ -4285,27 +4293,27 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="34">
+    <row r="42" spans="1:6" ht="31.5">
       <c r="A42" s="84" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="34">
+    <row r="43" spans="1:6" ht="31.5">
       <c r="A43" s="85" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="34">
+    <row r="44" spans="1:6" ht="31.5">
       <c r="A44" s="85" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17">
+    <row r="45" spans="1:6">
       <c r="A45" s="85" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17">
+    <row r="46" spans="1:6">
       <c r="A46" s="85" t="s">
         <v>461</v>
       </c>
@@ -4318,27 +4326,27 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="34">
+    <row r="50" spans="1:1" ht="31.5">
       <c r="A50" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17">
+    <row r="51" spans="1:1">
       <c r="A51" s="38" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="17">
+    <row r="52" spans="1:1">
       <c r="A52" s="38" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17">
+    <row r="53" spans="1:1">
       <c r="A53" s="38" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="34">
+    <row r="54" spans="1:1" ht="31.5">
       <c r="A54" s="38" t="s">
         <v>416</v>
       </c>
@@ -4363,17 +4371,17 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="34">
+    <row r="61" spans="1:1" ht="31.5">
       <c r="A61" s="38" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="34">
+    <row r="62" spans="1:1" ht="31.5">
       <c r="A62" s="38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="68">
+    <row r="63" spans="1:1" ht="63">
       <c r="A63" s="38" t="s">
         <v>340</v>
       </c>
@@ -4417,18 +4425,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
@@ -4458,7 +4466,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="33" t="s">
         <v>74</v>
@@ -4486,7 +4494,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="17">
+    <row r="5" spans="1:6">
       <c r="A5" s="18"/>
       <c r="B5" s="35" t="s">
         <v>288</v>
@@ -4502,7 +4510,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="18"/>
       <c r="B6" s="35" t="s">
         <v>281</v>
@@ -4530,7 +4538,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" ht="17">
+    <row r="8" spans="1:6">
       <c r="A8" s="15"/>
       <c r="B8" s="33" t="s">
         <v>86</v>
@@ -4548,7 +4556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="15"/>
       <c r="B9" s="35" t="s">
         <v>289</v>
@@ -4566,7 +4574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="15"/>
       <c r="B10" s="33" t="s">
         <v>87</v>
@@ -4584,7 +4592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="35" thickBot="1">
+    <row r="11" spans="1:6" ht="32.25" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="36" t="s">
         <v>88</v>
@@ -4612,7 +4620,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:6" ht="18" thickBot="1">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1">
       <c r="A13" s="46"/>
       <c r="B13" s="47" t="s">
         <v>74</v>
@@ -4640,7 +4648,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" ht="18" thickBot="1">
+    <row r="15" spans="1:6" ht="16.5" thickBot="1">
       <c r="A15" s="46"/>
       <c r="B15" s="50" t="s">
         <v>284</v>
@@ -4668,7 +4676,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
       <c r="A17" s="46"/>
       <c r="B17" s="51" t="s">
         <v>331</v>
@@ -4696,7 +4704,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" ht="17">
+    <row r="19" spans="1:6">
       <c r="A19" s="53"/>
       <c r="B19" s="50" t="s">
         <v>75</v>
@@ -4714,7 +4722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35" thickBot="1">
+    <row r="20" spans="1:6" ht="32.25" thickBot="1">
       <c r="A20" s="46"/>
       <c r="B20" s="47" t="s">
         <v>76</v>
@@ -4742,7 +4750,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="47" t="s">
         <v>78</v>
@@ -4770,7 +4778,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:6" ht="17">
+    <row r="24" spans="1:6">
       <c r="A24" s="53"/>
       <c r="B24" s="50" t="s">
         <v>75</v>
@@ -4788,7 +4796,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1">
       <c r="A25" s="46"/>
       <c r="B25" s="47" t="s">
         <v>290</v>
@@ -4816,7 +4824,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:6" ht="17">
+    <row r="27" spans="1:6">
       <c r="A27" s="53"/>
       <c r="B27" s="50" t="s">
         <v>299</v>
@@ -4834,7 +4842,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1">
+    <row r="28" spans="1:6" ht="16.5" thickBot="1">
       <c r="A28" s="53"/>
       <c r="B28" s="50" t="s">
         <v>298</v>
@@ -4862,7 +4870,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:6" ht="34">
+    <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="53"/>
       <c r="B30" s="51" t="s">
         <v>321</v>
@@ -4880,7 +4888,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="34">
+    <row r="31" spans="1:6" ht="31.5">
       <c r="A31" s="13"/>
       <c r="B31" s="51" t="s">
         <v>323</v>
@@ -4898,7 +4906,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="34">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" s="53"/>
       <c r="B32" s="51" t="s">
         <v>417</v>
@@ -4916,7 +4924,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="34">
+    <row r="33" spans="1:6" ht="31.5">
       <c r="A33" s="53"/>
       <c r="B33" s="50" t="s">
         <v>326</v>
@@ -4934,7 +4942,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" thickBot="1">
+    <row r="34" spans="1:6" ht="16.5" thickBot="1">
       <c r="A34" s="46"/>
       <c r="B34" s="47" t="s">
         <v>328</v>
@@ -5006,19 +5014,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="24.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>269</v>
       </c>
@@ -5355,7 +5363,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B16" s="7">
         <v>43983</v>
@@ -5371,7 +5379,7 @@
         <v>%</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>278</v>
@@ -6387,7 +6395,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(OR($A2 = "Vaccination", $A2 = "School Closures", $A2 = "Partial School Closures",  $A2 = "Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6428,12 +6436,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="10.875" style="2"/>
+    <col min="5" max="5" width="39.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6613,7 +6621,7 @@
         <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>31</v>
@@ -7328,18 +7336,18 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="68">
+    <row r="1" spans="1:4" ht="63">
       <c r="A1" s="9" t="s">
         <v>280</v>
       </c>
@@ -8486,18 +8494,18 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="8" customWidth="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="170">
+    <row r="1" spans="1:3" ht="126" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>279</v>
       </c>
@@ -8740,7 +8748,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B2:C22" xr:uid="{6764B28F-EEAB-5F4A-838F-FD36DD7F6B03}">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -8761,17 +8769,17 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="9" customWidth="1"/>
     <col min="4" max="5" width="11" style="9"/>
-    <col min="6" max="6" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="68">
+    <row r="1" spans="1:4" ht="63">
       <c r="A1" s="9" t="s">
         <v>279</v>
       </c>
@@ -9100,18 +9108,18 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="8"/>
+    <col min="7" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9134,7 +9142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:6">
       <c r="A2" s="63" t="s">
         <v>398</v>
       </c>
@@ -9150,7 +9158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17">
+    <row r="3" spans="1:6">
       <c r="A3" s="63" t="s">
         <v>399</v>
       </c>
@@ -9166,7 +9174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
+    <row r="4" spans="1:6">
       <c r="A4" s="63" t="s">
         <v>452</v>
       </c>
@@ -9184,7 +9192,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="69" customFormat="1" ht="17">
+    <row r="5" spans="1:6" s="69" customFormat="1">
       <c r="A5" s="63" t="s">
         <v>374</v>
       </c>
@@ -9202,7 +9210,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17">
+    <row r="6" spans="1:6">
       <c r="A6" s="63" t="s">
         <v>397</v>
       </c>
@@ -9218,7 +9226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17">
+    <row r="7" spans="1:6">
       <c r="A7" s="63" t="s">
         <v>396</v>
       </c>
@@ -9236,7 +9244,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17">
+    <row r="8" spans="1:6">
       <c r="A8" s="63" t="s">
         <v>395</v>
       </c>
@@ -9254,7 +9262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17">
+    <row r="9" spans="1:6">
       <c r="A9" s="63" t="s">
         <v>394</v>
       </c>
@@ -9272,7 +9280,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17">
+    <row r="10" spans="1:6">
       <c r="A10" s="63" t="s">
         <v>451</v>
       </c>
@@ -9290,7 +9298,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17">
+    <row r="11" spans="1:6">
       <c r="A11" s="63" t="s">
         <v>393</v>
       </c>
@@ -9308,7 +9316,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="63" t="s">
         <v>392</v>
       </c>
@@ -9326,7 +9334,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="63" t="s">
         <v>391</v>
       </c>
@@ -9344,7 +9352,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="63" t="s">
         <v>390</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="63" t="s">
         <v>389</v>
       </c>
@@ -9380,7 +9388,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="34">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="63" t="s">
         <v>388</v>
       </c>
@@ -9398,7 +9406,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="63" t="s">
         <v>387</v>
       </c>
@@ -9416,7 +9424,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="63" t="s">
         <v>375</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="63" t="s">
         <v>376</v>
       </c>
@@ -9452,7 +9460,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" s="63" t="s">
         <v>377</v>
       </c>
@@ -9470,7 +9478,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17">
+    <row r="21" spans="1:6">
       <c r="A21" s="68" t="s">
         <v>341</v>
       </c>
@@ -9486,7 +9494,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17">
+    <row r="22" spans="1:6">
       <c r="A22" s="68" t="s">
         <v>303</v>
       </c>
@@ -9502,7 +9510,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17">
+    <row r="23" spans="1:6">
       <c r="A23" s="68" t="s">
         <v>304</v>
       </c>
@@ -9584,14 +9592,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -9702,14 +9710,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="8"/>
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -9730,7 +9738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5">
       <c r="A2" s="71" t="s">
         <v>378</v>
       </c>
@@ -9747,7 +9755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:5">
       <c r="A3" s="71" t="s">
         <v>379</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5">
       <c r="A4" s="71" t="s">
         <v>380</v>
       </c>
@@ -9781,7 +9789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:5">
       <c r="A5" s="71" t="s">
         <v>381</v>
       </c>
@@ -9796,7 +9804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17">
+    <row r="6" spans="1:5">
       <c r="A6" s="71" t="s">
         <v>382</v>
       </c>
@@ -9813,7 +9821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5">
       <c r="A7" s="71" t="s">
         <v>383</v>
       </c>
@@ -9830,7 +9838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17">
+    <row r="8" spans="1:5">
       <c r="A8" s="71" t="s">
         <v>384</v>
       </c>
@@ -9847,7 +9855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17">
+    <row r="9" spans="1:5">
       <c r="A9" s="71" t="s">
         <v>385</v>
       </c>
@@ -9864,7 +9872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17">
+    <row r="10" spans="1:5">
       <c r="A10" s="71" t="s">
         <v>386</v>
       </c>
@@ -9881,7 +9889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17">
+    <row r="11" spans="1:5">
       <c r="A11" s="71" t="s">
         <v>305</v>
       </c>
@@ -9901,7 +9909,7 @@
     <row r="20" s="70" customFormat="1"/>
     <row r="21" s="70" customFormat="1" ht="30" customHeight="1"/>
     <row r="22" s="70" customFormat="1" ht="32.25" customHeight="1"/>
-    <row r="23" s="70" customFormat="1" ht="17" customHeight="1"/>
+    <row r="23" s="70" customFormat="1" ht="17.100000000000001" customHeight="1"/>
     <row r="24" s="70" customFormat="1"/>
     <row r="25" s="70" customFormat="1"/>
   </sheetData>
@@ -9946,13 +9954,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="71.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -10360,16 +10368,16 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="104.33203125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="8"/>
-    <col min="5" max="5" width="15.6640625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="104.375" style="60" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="8"/>
+    <col min="5" max="5" width="15.625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10391,7 +10399,7 @@
     </row>
     <row r="2" spans="1:5" ht="41.25" customHeight="1">
       <c r="A2" s="111" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -10400,7 +10408,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="110" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B3" s="99">
         <v>80</v>
@@ -10411,7 +10419,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B4" s="99">
         <v>20</v>
@@ -10422,7 +10430,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B5" s="100">
         <f>100*(1-((1-B3/100)/(1-B4/100)))</f>
@@ -10434,7 +10442,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B6" s="99">
         <v>50</v>
@@ -10443,9 +10451,9 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5">
       <c r="A7" s="101" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B7" s="100">
         <f>'Virus Param'!B8*(1-B3/100)/(1-B4/100)</f>
@@ -10455,13 +10463,13 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" s="69" customFormat="1" ht="17">
+    <row r="8" spans="1:5" s="69" customFormat="1">
       <c r="A8" s="101" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B8" s="100">
-        <f>100*(1-(B7/'Virus Param'!B8)*(1-'Vaccination Param'!B6/100))</f>
-        <v>87.5</v>
+        <f>100-100*(1-(B7/'Virus Param'!B8)*(1-'Vaccination Param'!B6/100))</f>
+        <v>12.5</v>
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
@@ -10474,9 +10482,9 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
     </row>
-    <row r="10" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="10" spans="1:5" s="60" customFormat="1">
       <c r="A10" s="101" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B10" s="102">
         <f>$B$7</f>
@@ -10492,7 +10500,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="11" spans="1:5" s="60" customFormat="1">
       <c r="A11" s="101" t="s">
         <v>462</v>
       </c>
@@ -10510,7 +10518,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="12" spans="1:5" s="60" customFormat="1">
       <c r="A12" s="101" t="s">
         <v>463</v>
       </c>
@@ -10528,7 +10536,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="13" spans="1:5" s="60" customFormat="1">
       <c r="A13" s="101" t="s">
         <v>464</v>
       </c>
@@ -10546,7 +10554,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="14" spans="1:5" s="60" customFormat="1">
       <c r="A14" s="101" t="s">
         <v>465</v>
       </c>
@@ -10564,7 +10572,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="15" spans="1:5" s="60" customFormat="1">
       <c r="A15" s="101" t="s">
         <v>466</v>
       </c>
@@ -10582,7 +10590,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="16" spans="1:5" s="60" customFormat="1">
       <c r="A16" s="101" t="s">
         <v>467</v>
       </c>
@@ -10600,7 +10608,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="17" spans="1:5" s="60" customFormat="1">
       <c r="A17" s="101" t="s">
         <v>468</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="18" spans="1:5" s="60" customFormat="1">
       <c r="A18" s="101" t="s">
         <v>469</v>
       </c>
@@ -10636,7 +10644,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="60" customFormat="1" ht="17">
+    <row r="19" spans="1:5" s="60" customFormat="1">
       <c r="A19" s="105" t="s">
         <v>470</v>
       </c>
@@ -10653,13 +10661,13 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="A20" s="93" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="B20" s="106">
         <f>$B$8</f>
-        <v>87.5</v>
+        <v>12.5</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>31</v>
@@ -10671,13 +10679,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="21" spans="1:5" s="30" customFormat="1">
       <c r="A21" s="93" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="B21" s="106">
         <f>$B$8</f>
-        <v>87.5</v>
+        <v>12.5</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>31</v>
@@ -10689,13 +10697,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="93" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="B22" s="106">
         <f>$B$8</f>
-        <v>87.5</v>
+        <v>12.5</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>31</v>
@@ -10707,9 +10715,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="93" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B23" s="106">
         <v>100</v>
@@ -10724,9 +10732,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="93" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B24" s="97">
         <v>4</v>
@@ -10741,9 +10749,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="94" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B25" s="98">
         <v>100</v>
@@ -10758,9 +10766,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="A26" s="94" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B26" s="98">
         <v>100</v>
@@ -10775,9 +10783,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="A27" s="94" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B27" s="98">
         <f>$B$4</f>
@@ -10793,9 +10801,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" ht="17">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="A28" s="94" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B28" s="98">
         <f>$B$4</f>

--- a/Template_CoMoCOVID-19App_v18.xlsx
+++ b/Template_CoMoCOVID-19App_v18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3B205-F1C4-46C9-AD65-593F644CD0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B82F39-1484-4443-BD67-7D19A219465C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="648" activeTab="2" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="16000" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -3045,9 +3037,6 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>v18.a</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3122,6 +3111,9 @@
       </rPr>
       <t xml:space="preserve"> Probability of requiring hospitalisation if previously infected and vaccinated</t>
     </r>
+  </si>
+  <si>
+    <t>v18.e</t>
   </si>
 </sst>
 </file>
@@ -3695,16 +3687,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3748,6 +3730,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3762,14 +3754,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="E1:F16" xr:uid="{2E89BE7F-E667-6946-928D-DC5AB4119A65}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4075,13 +4067,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="76.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4089,7 +4081,7 @@
         <v>486</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
@@ -4117,12 +4109,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="17">
       <c r="A8" s="38" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="31.5">
+    <row r="9" spans="1:2" ht="34">
       <c r="A9" s="38" t="s">
         <v>484</v>
       </c>
@@ -4132,7 +4124,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="89.1" customHeight="1">
+    <row r="12" spans="1:2" ht="89" customHeight="1">
       <c r="A12" s="38" t="s">
         <v>447</v>
       </c>
@@ -4293,27 +4285,27 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="31.5">
+    <row r="42" spans="1:6" ht="34">
       <c r="A42" s="84" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="31.5">
+    <row r="43" spans="1:6" ht="34">
       <c r="A43" s="85" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="31.5">
+    <row r="44" spans="1:6" ht="34">
       <c r="A44" s="85" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="17">
       <c r="A45" s="85" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="17">
       <c r="A46" s="85" t="s">
         <v>461</v>
       </c>
@@ -4326,27 +4318,27 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="31.5">
+    <row r="50" spans="1:1" ht="34">
       <c r="A50" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" ht="17">
       <c r="A51" s="38" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" ht="17">
       <c r="A52" s="38" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="17">
       <c r="A53" s="38" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="31.5">
+    <row r="54" spans="1:1" ht="34">
       <c r="A54" s="38" t="s">
         <v>416</v>
       </c>
@@ -4371,17 +4363,17 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="31.5">
+    <row r="61" spans="1:1" ht="34">
       <c r="A61" s="38" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="31.5">
+    <row r="62" spans="1:1" ht="34">
       <c r="A62" s="38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="63">
+    <row r="63" spans="1:1" ht="68">
       <c r="A63" s="38" t="s">
         <v>340</v>
       </c>
@@ -4425,18 +4417,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
+    <row r="1" spans="1:6" ht="17" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
@@ -4466,7 +4458,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
+    <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="33" t="s">
         <v>74</v>
@@ -4494,7 +4486,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="18"/>
       <c r="B5" s="35" t="s">
         <v>288</v>
@@ -4510,7 +4502,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
+    <row r="6" spans="1:6" ht="18" thickBot="1">
       <c r="A6" s="18"/>
       <c r="B6" s="35" t="s">
         <v>281</v>
@@ -4538,7 +4530,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="15"/>
       <c r="B8" s="33" t="s">
         <v>86</v>
@@ -4556,7 +4548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="34">
       <c r="A9" s="15"/>
       <c r="B9" s="35" t="s">
         <v>289</v>
@@ -4574,7 +4566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="15"/>
       <c r="B10" s="33" t="s">
         <v>87</v>
@@ -4592,7 +4584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32.25" thickBot="1">
+    <row r="11" spans="1:6" ht="35" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="36" t="s">
         <v>88</v>
@@ -4620,7 +4612,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1">
+    <row r="13" spans="1:6" ht="18" thickBot="1">
       <c r="A13" s="46"/>
       <c r="B13" s="47" t="s">
         <v>74</v>
@@ -4648,7 +4640,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1">
+    <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="A15" s="46"/>
       <c r="B15" s="50" t="s">
         <v>284</v>
@@ -4676,7 +4668,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+    <row r="17" spans="1:6" ht="18" thickBot="1">
       <c r="A17" s="46"/>
       <c r="B17" s="51" t="s">
         <v>331</v>
@@ -4704,7 +4696,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="17">
       <c r="A19" s="53"/>
       <c r="B19" s="50" t="s">
         <v>75</v>
@@ -4722,7 +4714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="32.25" thickBot="1">
+    <row r="20" spans="1:6" ht="35" thickBot="1">
       <c r="A20" s="46"/>
       <c r="B20" s="47" t="s">
         <v>76</v>
@@ -4750,7 +4742,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1">
+    <row r="22" spans="1:6" ht="18" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="47" t="s">
         <v>78</v>
@@ -4778,7 +4770,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="17">
       <c r="A24" s="53"/>
       <c r="B24" s="50" t="s">
         <v>75</v>
@@ -4796,7 +4788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1">
+    <row r="25" spans="1:6" ht="18" thickBot="1">
       <c r="A25" s="46"/>
       <c r="B25" s="47" t="s">
         <v>290</v>
@@ -4824,7 +4816,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="17">
       <c r="A27" s="53"/>
       <c r="B27" s="50" t="s">
         <v>299</v>
@@ -4842,7 +4834,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1">
+    <row r="28" spans="1:6" ht="18" thickBot="1">
       <c r="A28" s="53"/>
       <c r="B28" s="50" t="s">
         <v>298</v>
@@ -4870,7 +4862,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
+    <row r="30" spans="1:6" ht="34">
       <c r="A30" s="53"/>
       <c r="B30" s="51" t="s">
         <v>321</v>
@@ -4888,7 +4880,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5">
+    <row r="31" spans="1:6" ht="34">
       <c r="A31" s="13"/>
       <c r="B31" s="51" t="s">
         <v>323</v>
@@ -4906,7 +4898,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
+    <row r="32" spans="1:6" ht="34">
       <c r="A32" s="53"/>
       <c r="B32" s="51" t="s">
         <v>417</v>
@@ -4924,7 +4916,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="53"/>
       <c r="B33" s="50" t="s">
         <v>326</v>
@@ -4942,7 +4934,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1">
+    <row r="34" spans="1:6" ht="18" thickBot="1">
       <c r="A34" s="46"/>
       <c r="B34" s="47" t="s">
         <v>328</v>
@@ -5014,19 +5006,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="7" max="7" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="2" t="s">
         <v>269</v>
       </c>
@@ -6395,7 +6387,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(OR($A2 = "Vaccination", $A2 = "School Closures", $A2 = "Partial School Closures",  $A2 = "Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6436,12 +6428,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="10.875" style="2"/>
-    <col min="5" max="5" width="39.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="2"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7340,14 +7332,14 @@
       <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="9" t="s">
         <v>280</v>
       </c>
@@ -8493,15 +8485,15 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="8" customWidth="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -8769,17 +8761,17 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="9" customWidth="1"/>
     <col min="4" max="5" width="11" style="9"/>
-    <col min="6" max="6" width="11.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63">
+    <row r="1" spans="1:4" ht="68">
       <c r="A1" s="9" t="s">
         <v>279</v>
       </c>
@@ -9111,15 +9103,15 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="70.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="8"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9142,7 +9134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="63" t="s">
         <v>398</v>
       </c>
@@ -9158,7 +9150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="63" t="s">
         <v>399</v>
       </c>
@@ -9174,7 +9166,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="63" t="s">
         <v>452</v>
       </c>
@@ -9192,7 +9184,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="69" customFormat="1">
+    <row r="5" spans="1:6" s="69" customFormat="1" ht="17">
       <c r="A5" s="63" t="s">
         <v>374</v>
       </c>
@@ -9210,7 +9202,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="63" t="s">
         <v>397</v>
       </c>
@@ -9226,7 +9218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="63" t="s">
         <v>396</v>
       </c>
@@ -9244,7 +9236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="63" t="s">
         <v>395</v>
       </c>
@@ -9262,7 +9254,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="63" t="s">
         <v>394</v>
       </c>
@@ -9280,7 +9272,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="63" t="s">
         <v>451</v>
       </c>
@@ -9298,7 +9290,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="63" t="s">
         <v>393</v>
       </c>
@@ -9316,7 +9308,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="34">
       <c r="A12" s="63" t="s">
         <v>392</v>
       </c>
@@ -9334,7 +9326,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="34">
       <c r="A13" s="63" t="s">
         <v>391</v>
       </c>
@@ -9352,7 +9344,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="34">
       <c r="A14" s="63" t="s">
         <v>390</v>
       </c>
@@ -9370,7 +9362,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="34">
       <c r="A15" s="63" t="s">
         <v>389</v>
       </c>
@@ -9388,7 +9380,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="34">
       <c r="A16" s="63" t="s">
         <v>388</v>
       </c>
@@ -9406,7 +9398,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="34">
       <c r="A17" s="63" t="s">
         <v>387</v>
       </c>
@@ -9424,7 +9416,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="34">
       <c r="A18" s="63" t="s">
         <v>375</v>
       </c>
@@ -9442,7 +9434,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="34">
       <c r="A19" s="63" t="s">
         <v>376</v>
       </c>
@@ -9460,7 +9452,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="34">
       <c r="A20" s="63" t="s">
         <v>377</v>
       </c>
@@ -9478,7 +9470,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="17">
       <c r="A21" s="68" t="s">
         <v>341</v>
       </c>
@@ -9494,7 +9486,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="17">
       <c r="A22" s="68" t="s">
         <v>303</v>
       </c>
@@ -9510,7 +9502,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="17">
       <c r="A23" s="68" t="s">
         <v>304</v>
       </c>
@@ -9592,14 +9584,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -9710,14 +9702,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="66.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="8"/>
-    <col min="6" max="6" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="8"/>
+    <col min="6" max="6" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
     <col min="8" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -9738,7 +9730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" s="71" t="s">
         <v>378</v>
       </c>
@@ -9755,7 +9747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="17">
       <c r="A3" s="71" t="s">
         <v>379</v>
       </c>
@@ -9772,7 +9764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" s="71" t="s">
         <v>380</v>
       </c>
@@ -9789,7 +9781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" s="71" t="s">
         <v>381</v>
       </c>
@@ -9804,7 +9796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="17">
       <c r="A6" s="71" t="s">
         <v>382</v>
       </c>
@@ -9821,7 +9813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" s="71" t="s">
         <v>383</v>
       </c>
@@ -9838,7 +9830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="17">
       <c r="A8" s="71" t="s">
         <v>384</v>
       </c>
@@ -9855,7 +9847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="71" t="s">
         <v>385</v>
       </c>
@@ -9872,7 +9864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="71" t="s">
         <v>386</v>
       </c>
@@ -9889,7 +9881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="17">
       <c r="A11" s="71" t="s">
         <v>305</v>
       </c>
@@ -9909,7 +9901,7 @@
     <row r="20" s="70" customFormat="1"/>
     <row r="21" s="70" customFormat="1" ht="30" customHeight="1"/>
     <row r="22" s="70" customFormat="1" ht="32.25" customHeight="1"/>
-    <row r="23" s="70" customFormat="1" ht="17.100000000000001" customHeight="1"/>
+    <row r="23" s="70" customFormat="1" ht="17" customHeight="1"/>
     <row r="24" s="70" customFormat="1"/>
     <row r="25" s="70" customFormat="1"/>
   </sheetData>
@@ -9954,13 +9946,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="71.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -10371,13 +10363,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="104.375" style="60" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="8"/>
-    <col min="5" max="5" width="15.625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="8"/>
+    <col min="1" max="1" width="104.33203125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="8"/>
+    <col min="5" max="5" width="15.6640625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10451,7 +10443,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" s="101" t="s">
         <v>476</v>
       </c>
@@ -10463,9 +10455,9 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" s="69" customFormat="1">
+    <row r="8" spans="1:5" s="69" customFormat="1" ht="17">
       <c r="A8" s="101" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" s="100">
         <f>100-100*(1-(B7/'Virus Param'!B8)*(1-'Vaccination Param'!B6/100))</f>
@@ -10482,7 +10474,7 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
     </row>
-    <row r="10" spans="1:5" s="60" customFormat="1">
+    <row r="10" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A10" s="101" t="s">
         <v>477</v>
       </c>
@@ -10500,7 +10492,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="60" customFormat="1">
+    <row r="11" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A11" s="101" t="s">
         <v>462</v>
       </c>
@@ -10518,7 +10510,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="60" customFormat="1">
+    <row r="12" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A12" s="101" t="s">
         <v>463</v>
       </c>
@@ -10536,7 +10528,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="60" customFormat="1">
+    <row r="13" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A13" s="101" t="s">
         <v>464</v>
       </c>
@@ -10554,7 +10546,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="60" customFormat="1">
+    <row r="14" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A14" s="101" t="s">
         <v>465</v>
       </c>
@@ -10572,7 +10564,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="60" customFormat="1">
+    <row r="15" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A15" s="101" t="s">
         <v>466</v>
       </c>
@@ -10590,7 +10582,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="60" customFormat="1">
+    <row r="16" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A16" s="101" t="s">
         <v>467</v>
       </c>
@@ -10608,7 +10600,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="60" customFormat="1">
+    <row r="17" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A17" s="101" t="s">
         <v>468</v>
       </c>
@@ -10626,7 +10618,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="60" customFormat="1">
+    <row r="18" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A18" s="101" t="s">
         <v>469</v>
       </c>
@@ -10644,7 +10636,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="60" customFormat="1">
+    <row r="19" spans="1:5" s="60" customFormat="1" ht="17">
       <c r="A19" s="105" t="s">
         <v>470</v>
       </c>
@@ -10661,9 +10653,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1">
+    <row r="20" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A20" s="93" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B20" s="106">
         <f>$B$8</f>
@@ -10679,9 +10671,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="30" customFormat="1">
+    <row r="21" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A21" s="93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B21" s="106">
         <f>$B$8</f>
@@ -10697,9 +10689,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1">
+    <row r="22" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A22" s="93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B22" s="106">
         <f>$B$8</f>
@@ -10715,7 +10707,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1">
+    <row r="23" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A23" s="93" t="s">
         <v>471</v>
       </c>
@@ -10732,7 +10724,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1">
+    <row r="24" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A24" s="93" t="s">
         <v>478</v>
       </c>
@@ -10749,7 +10741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1">
+    <row r="25" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A25" s="94" t="s">
         <v>479</v>
       </c>
@@ -10766,7 +10758,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1">
+    <row r="26" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A26" s="94" t="s">
         <v>480</v>
       </c>
@@ -10783,7 +10775,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1">
+    <row r="27" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A27" s="94" t="s">
         <v>481</v>
       </c>
@@ -10801,7 +10793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1">
+    <row r="28" spans="1:5" s="30" customFormat="1" ht="17">
       <c r="A28" s="94" t="s">
         <v>482</v>
       </c>

--- a/Template_CoMoCOVID-19App_v18.xlsx
+++ b/Template_CoMoCOVID-19App_v18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B82F39-1484-4443-BD67-7D19A219465C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00607535-D5A8-2646-8C01-3624C687BAC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="16000" tabRatio="648" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27860" windowHeight="16000" tabRatio="648" activeTab="1" xr2:uid="{25C8D176-4C08-9D40-9B57-F7F8CA55C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Interventions Param'!$A$1:$F$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3687,6 +3687,16 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3730,16 +3740,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3754,14 +3754,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB0B0E91-77B9-BF40-854E-551FE7298B58}" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="E1:F16" xr:uid="{2E89BE7F-E667-6946-928D-DC5AB4119A65}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1DFAD25E-CC0B-354F-8701-442A29A91782}" name="Intervention" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D399EFFD-3A23-4943-B9C5-CF90FE06EA91}" name="Unit Intervention" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4067,7 +4067,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6387,7 +6387,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(OR($A2 = "Vaccination", $A2 = "School Closures", $A2 = "Partial School Closures",  $A2 = "Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7325,11 +7325,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7">
-        <v>43830</v>
+        <v>44262</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7366,10 +7366,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7">
-        <v>43831</v>
+        <v>44263</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7377,10 +7377,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7">
-        <v>43832</v>
+        <v>44264</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7">
-        <v>43833</v>
+        <v>44265</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7399,10 +7399,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7">
-        <v>43834</v>
+        <v>44266</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7410,10 +7410,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7">
-        <v>43835</v>
+        <v>44267</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -7421,10 +7421,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7">
-        <v>43836</v>
+        <v>44268</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7">
-        <v>43837</v>
+        <v>44269</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -7443,10 +7443,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7">
-        <v>43838</v>
+        <v>44270</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7">
-        <v>43839</v>
+        <v>44271</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7">
-        <v>43840</v>
+        <v>44272</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -7476,10 +7476,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7">
-        <v>43841</v>
+        <v>44273</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -7487,10 +7487,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7">
-        <v>43842</v>
+        <v>44274</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -7498,10 +7498,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7">
-        <v>43843</v>
+        <v>44275</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -7509,161 +7509,161 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7">
-        <v>43844</v>
+        <v>44276</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="7">
-        <v>43845</v>
+        <v>44277</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="7">
-        <v>43846</v>
+        <v>44278</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="7">
-        <v>43847</v>
+        <v>44279</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="7">
-        <v>43848</v>
+        <v>44280</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="7">
-        <v>43849</v>
+        <v>44281</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="7">
-        <v>43850</v>
+        <v>44282</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="7">
-        <v>43851</v>
+        <v>44283</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="7">
-        <v>43852</v>
+        <v>44284</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="7">
-        <v>43853</v>
+        <v>44285</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="7">
-        <v>43854</v>
+        <v>44286</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="7">
-        <v>43855</v>
+        <v>44287</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="7">
-        <v>43856</v>
+        <v>44288</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="7">
-        <v>43857</v>
+        <v>44289</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="7">
-        <v>43858</v>
+        <v>44290</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -7672,23 +7672,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="7">
-        <v>43859</v>
+        <v>44291</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="7">
-        <v>43860</v>
+        <v>44292</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -7696,10 +7699,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
-        <v>43861</v>
+        <v>44293</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -7707,10 +7710,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7">
-        <v>43862</v>
+        <v>44294</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -7718,753 +7721,13 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7">
-        <v>43863</v>
+        <v>44295</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7">
-        <v>43864</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7">
-        <v>43865</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7">
-        <v>43866</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7">
-        <v>43867</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7">
-        <v>43868</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="7">
-        <v>43869</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7">
-        <v>43870</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="7">
-        <v>43871</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7">
-        <v>43872</v>
-      </c>
-      <c r="B44" s="1">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7">
-        <v>43873</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7">
-        <v>43874</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7">
-        <v>43875</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="7">
-        <v>43876</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="7">
-        <v>43877</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="7">
-        <v>43878</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="7">
-        <v>43879</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="7">
-        <v>43880</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="7">
-        <v>43881</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="7">
-        <v>43882</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="7">
-        <v>43883</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="7">
-        <v>43884</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="7">
-        <v>43885</v>
-      </c>
-      <c r="B57" s="1">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="7">
-        <v>43886</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="7">
-        <v>43887</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="7">
-        <v>43888</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="7">
-        <v>43889</v>
-      </c>
-      <c r="B61" s="1">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="7">
-        <v>43890</v>
-      </c>
-      <c r="B62" s="1">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="7">
-        <v>43891</v>
-      </c>
-      <c r="B63" s="1">
-        <v>5</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="7">
-        <v>43892</v>
-      </c>
-      <c r="B64" s="1">
-        <v>13</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="7">
-        <v>43893</v>
-      </c>
-      <c r="B65" s="1">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="7">
-        <v>43894</v>
-      </c>
-      <c r="B66" s="1">
-        <v>11</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="7">
-        <v>43895</v>
-      </c>
-      <c r="B67" s="1">
-        <v>34</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="7">
-        <v>43896</v>
-      </c>
-      <c r="B68" s="1">
-        <v>30</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="7">
-        <v>43897</v>
-      </c>
-      <c r="B69" s="1">
-        <v>48</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="7">
-        <v>43898</v>
-      </c>
-      <c r="B70" s="1">
-        <v>43</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="7">
-        <v>43899</v>
-      </c>
-      <c r="B71" s="1">
-        <v>67</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="7">
-        <v>43900</v>
-      </c>
-      <c r="B72" s="1">
-        <v>48</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="7">
-        <v>43901</v>
-      </c>
-      <c r="B73" s="1">
-        <v>52</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="7">
-        <v>43902</v>
-      </c>
-      <c r="B74" s="1">
-        <v>83</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="7">
-        <v>43903</v>
-      </c>
-      <c r="B75" s="1">
-        <v>134</v>
-      </c>
-      <c r="C75" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="7">
-        <v>43904</v>
-      </c>
-      <c r="B76" s="1">
-        <v>117</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="7">
-        <v>43905</v>
-      </c>
-      <c r="B77" s="1">
-        <v>433</v>
-      </c>
-      <c r="C77" s="1">
-        <v>11</v>
-      </c>
-      <c r="D77" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="7">
-        <v>43906</v>
-      </c>
-      <c r="B78" s="1">
-        <v>251</v>
-      </c>
-      <c r="C78" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="7">
-        <v>43907</v>
-      </c>
-      <c r="B79" s="1">
-        <v>152</v>
-      </c>
-      <c r="C79" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="7">
-        <v>43908</v>
-      </c>
-      <c r="B80" s="1">
-        <v>407</v>
-      </c>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="7">
-        <v>43909</v>
-      </c>
-      <c r="B81" s="1">
-        <v>680</v>
-      </c>
-      <c r="C81" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="7">
-        <v>43910</v>
-      </c>
-      <c r="B82" s="1">
-        <v>647</v>
-      </c>
-      <c r="C82" s="1">
-        <v>41</v>
-      </c>
-      <c r="D82" s="1">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="7">
-        <v>43911</v>
-      </c>
-      <c r="B83" s="1">
-        <v>706</v>
-      </c>
-      <c r="C83" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="7">
-        <v>43912</v>
-      </c>
-      <c r="B84" s="1">
-        <v>1035</v>
-      </c>
-      <c r="C84" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="7">
-        <v>43913</v>
-      </c>
-      <c r="B85" s="1">
-        <v>665</v>
-      </c>
-      <c r="C85" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="7">
-        <v>43914</v>
-      </c>
-      <c r="B86" s="1">
-        <v>967</v>
-      </c>
-      <c r="C86" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="7">
-        <v>43915</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1427</v>
-      </c>
-      <c r="C87" s="1">
-        <v>87</v>
-      </c>
-      <c r="D87" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="7">
-        <v>43916</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1452</v>
-      </c>
-      <c r="C88" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="7">
-        <v>43917</v>
-      </c>
-      <c r="B89" s="1">
-        <v>2129</v>
-      </c>
-      <c r="C89" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="7">
-        <v>43918</v>
-      </c>
-      <c r="B90" s="1">
-        <v>2885</v>
-      </c>
-      <c r="C90" s="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="7">
-        <v>43919</v>
-      </c>
-      <c r="B91" s="1">
-        <v>2546</v>
-      </c>
-      <c r="C91" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="7">
-        <v>43920</v>
-      </c>
-      <c r="B92" s="1">
-        <v>2433</v>
-      </c>
-      <c r="C92" s="1">
-        <v>209</v>
-      </c>
-      <c r="D92" s="1">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="7">
-        <v>43921</v>
-      </c>
-      <c r="B93" s="1">
-        <v>2619</v>
-      </c>
-      <c r="C93" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="7">
-        <v>43922</v>
-      </c>
-      <c r="B94" s="1">
-        <v>3009</v>
-      </c>
-      <c r="C94" s="1">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="7">
-        <v>43923</v>
-      </c>
-      <c r="B95" s="1">
-        <v>4324</v>
-      </c>
-      <c r="C95" s="1">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="7">
-        <v>43924</v>
-      </c>
-      <c r="B96" s="1">
-        <v>4244</v>
-      </c>
-      <c r="C96" s="1">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="7">
-        <v>43925</v>
-      </c>
-      <c r="B97" s="1">
-        <v>4450</v>
-      </c>
-      <c r="C97" s="1">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="7">
-        <v>43926</v>
-      </c>
-      <c r="B98" s="1">
-        <v>3735</v>
-      </c>
-      <c r="C98" s="1">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="7">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="7">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="7">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="7">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="7">
-        <v>43931</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="7">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="7">
-        <v>43933</v>
       </c>
     </row>
   </sheetData>
